--- a/lab2020/assignment1_sol/runs.xlsx
+++ b/lab2020/assignment1_sol/runs.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chgogos/git/dituoi_assignments/pdc/exercise_2020_1_sol/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\git_repos\ceteiep_pdc\lab2020\assignment1_sol\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D07EF7B-B4D1-D54E-AEC6-80FAA52E9FDA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8428796D-8480-4232-B708-0A10CED00A28}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14180" xr2:uid="{F5B72FE5-8D23-CD44-9AAA-E7901B243126}"/>
+    <workbookView xWindow="6400" yWindow="5140" windowWidth="28800" windowHeight="15460" xr2:uid="{F5B72FE5-8D23-CD44-9AAA-E7901B243126}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>serial</t>
   </si>
@@ -52,15 +52,32 @@
   <si>
     <t>C compiler: Apple clang version 11.0.0 (clang-1100.0.33.16)</t>
   </si>
+  <si>
+    <t>Speedup</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t># primes</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0.000"/>
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -101,16 +118,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="Κανονικό" xfId="0" builtinId="0"/>
+    <cellStyle name="Κόμμα" xfId="1" builtinId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -128,7 +148,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="el-GR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -190,7 +210,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-GR"/>
+          <a:endParaRPr lang="el-GR"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -280,7 +300,7 @@
                   <c:v>0.2830162</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.14146300000000001</c:v>
+                  <c:v>0.28246300000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -638,7 +658,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-GR"/>
+              <a:endParaRPr lang="el-GR"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -676,7 +696,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-GR"/>
+            <a:endParaRPr lang="el-GR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1869652672"/>
@@ -763,7 +783,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-GR"/>
+              <a:endParaRPr lang="el-GR"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -795,7 +815,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-GR"/>
+            <a:endParaRPr lang="el-GR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1869667520"/>
@@ -837,7 +857,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-GR"/>
+          <a:endParaRPr lang="el-GR"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -874,7 +894,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-GR"/>
+      <a:endParaRPr lang="el-GR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1445,16 +1465,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:rowOff>44450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>781050</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1483,7 +1503,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Θέμα του Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1779,18 +1799,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57E9B628-C73F-A446-A5C5-81C403D6D574}">
-  <dimension ref="A1:E14"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q6" sqref="Q6"/>
+      <selection activeCell="O35" sqref="O35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.83203125" customWidth="1"/>
+    <col min="1" max="1" width="8.9140625" customWidth="1"/>
+    <col min="2" max="5" width="7.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="1">
         <v>1000000</v>
@@ -1805,7 +1829,7 @@
         <v>8000000</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1822,7 +1846,7 @@
         <v>13.47974</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1839,7 +1863,7 @@
         <v>8.3041040000000006</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>4</v>
       </c>
@@ -1856,7 +1880,7 @@
         <v>5.870622</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>8</v>
       </c>
@@ -1873,7 +1897,7 @@
         <v>5.3533790000000003</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>16</v>
       </c>
@@ -1890,7 +1914,7 @@
         <v>5.280513</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>32</v>
       </c>
@@ -1907,12 +1931,12 @@
         <v>5.2975409999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>64</v>
       </c>
       <c r="B8" s="2">
-        <v>0.14146300000000001</v>
+        <v>0.28246300000000002</v>
       </c>
       <c r="C8" s="2">
         <v>0.74251290000000003</v>
@@ -1924,33 +1948,244 @@
         <v>5.2631030000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="C11" s="1">
+        <v>2000000</v>
+      </c>
+      <c r="D11" s="1">
+        <v>4000000</v>
+      </c>
+      <c r="E11" s="1">
+        <v>8000000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="1">
+        <v>78498</v>
+      </c>
+      <c r="C12" s="1">
+        <v>148933</v>
+      </c>
+      <c r="D12" s="1">
+        <v>283146</v>
+      </c>
+      <c r="E12" s="1">
+        <v>539777</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="C15" s="1">
+        <v>2000000</v>
+      </c>
+      <c r="D15" s="1">
+        <v>4000000</v>
+      </c>
+      <c r="E15" s="1">
+        <v>8000000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="3">
+        <f>$B$2/B2</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="C16" s="3">
+        <f>$C$2/C2</f>
+        <v>1</v>
+      </c>
+      <c r="D16" s="3">
+        <f>$D$2/D2</f>
+        <v>1</v>
+      </c>
+      <c r="E16" s="3">
+        <f>$E$2/E2</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="B17" s="3">
+        <f>$B$2/B3</f>
+        <v>1.5955634513525339</v>
+      </c>
+      <c r="C17" s="3">
+        <f>$C$2/C3</f>
+        <v>1.5702768698078837</v>
+      </c>
+      <c r="D17" s="3">
+        <f>$D$2/D3</f>
+        <v>1.6060838185802886</v>
+      </c>
+      <c r="E17" s="3">
+        <f>$E$2/E3</f>
+        <v>1.6232624254224175</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" s="1">
+        <v>4</v>
+      </c>
+      <c r="B18" s="3">
+        <f>$B$2/B4</f>
+        <v>2.2390429494720987</v>
+      </c>
+      <c r="C18" s="3">
+        <f>$C$2/C4</f>
+        <v>2.2804684312679502</v>
+      </c>
+      <c r="D18" s="3">
+        <f>$D$2/D4</f>
+        <v>2.3278857476691139</v>
+      </c>
+      <c r="E18" s="3">
+        <f>$E$2/E4</f>
+        <v>2.2961348899656628</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" s="1">
+        <v>8</v>
+      </c>
+      <c r="B19" s="3">
+        <f>$B$2/B5</f>
+        <v>2.470771050478521</v>
+      </c>
+      <c r="C19" s="3">
+        <f>$C$2/C5</f>
+        <v>2.5495927796395064</v>
+      </c>
+      <c r="D19" s="3">
+        <f>$D$2/D5</f>
+        <v>2.4712768485921912</v>
+      </c>
+      <c r="E19" s="3">
+        <f>$E$2/E5</f>
+        <v>2.517987237593303</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" s="1">
+        <v>16</v>
+      </c>
+      <c r="B20" s="3">
+        <f>$B$2/B6</f>
+        <v>2.5500140558015318</v>
+      </c>
+      <c r="C20" s="3">
+        <f>$C$2/C6</f>
+        <v>2.5696722394591767</v>
+      </c>
+      <c r="D20" s="3">
+        <f>$D$2/D6</f>
+        <v>2.5600813474390614</v>
+      </c>
+      <c r="E20" s="3">
+        <f>$E$2/E6</f>
+        <v>2.5527330393846204</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" s="1">
+        <v>32</v>
+      </c>
+      <c r="B21" s="3">
+        <f>$B$2/B7</f>
+        <v>2.564104104288023</v>
+      </c>
+      <c r="C21" s="3">
+        <f>$C$2/C7</f>
+        <v>2.5785277383305951</v>
+      </c>
+      <c r="D21" s="3">
+        <f>$D$2/D7</f>
+        <v>2.5192766684652841</v>
+      </c>
+      <c r="E21" s="3">
+        <f>$E$2/E7</f>
+        <v>2.5445277346602886</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22" s="1">
+        <v>64</v>
+      </c>
+      <c r="B22" s="3">
+        <f>$B$2/B8</f>
+        <v>2.5691258678127751</v>
+      </c>
+      <c r="C22" s="3">
+        <f>$C$2/C8</f>
+        <v>2.6190198177028301</v>
+      </c>
+      <c r="D22" s="3">
+        <f>$D$2/D8</f>
+        <v>2.5761474983317822</v>
+      </c>
+      <c r="E22" s="3">
+        <f>$E$2/E8</f>
+        <v>2.5611773130793751</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
         <v>5</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B16:E22">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" scale="82" fitToHeight="0" orientation="landscape" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>